--- a/steel/data/up-stream/粗钢/粗钢产量.xlsx
+++ b/steel/data/up-stream/粗钢/粗钢产量.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Document\Project\ffa\steel\data\up-stream\粗钢\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Projects\ffa\steel\data\up-stream\粗钢\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C262168-B906-49E4-8B82-2A55FC74B09D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1F3ACA-9D20-4DDA-9F53-D5CB1EA1EC63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1837" yWindow="2213" windowWidth="28800" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,10 +38,10 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>FUDIAN</author>
+    <author>howard</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{6B2C923A-1F3A-4949-B8D7-A25BE22DDF23}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{FD07BA8F-72A1-4FBE-90BF-E709F7DD7CDD}">
       <text>
         <r>
           <rPr>
@@ -52,7 +52,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>yVjpCgZpNvOHlEoAN60+iXcNR8qcjD2afR3U+XlDrUTEX5W5KWYQZl2WlS6znR8JdtRv8fy9hcGzGgX1t8jwbDwAx0EUQZsw3ZWNu8RJYhGO4TcQ9l1JkQHbe3Y9+FG0Tmzb5nAqIClWWKfYkQKr3HY3DNkUELEitQOt11rUEoTH9AyAvxvPteNzylKDp0Bto34ITBxlDMgVblFBeSgkTUK3nJWz+klc17yRtMG5kjgtG58H2hz5gJ/aBdpr0cmGq+0q+DnNghOirkrWQhEs81LPlyLPk000I4d76b26/Gm6duWAhbqFs91icIBPK1YLJk8yEULMGNbwlTrlhpaNUzE8zjqaiXdhqB4Xk+YR9IOq0vlQlInlUv/IDgDOzzauMcmMpIqlWh9DiGXhilxq0ZKLp9oLMpO/7d77mzi370eAw3Y94c2Ce+yVgrck6j1r9dPulkoEwDqW+QnsLmJvsreKtTIWSVocO5baRvGd/XnQXbN91T+sXymAysAwJuyI2Ilzqg0VpZ8LOBJV7i10YLovTwLY49z9J+8udv1g8tkZXlmWqT0Dik97m7U2kZp2pFI2FWb651cHcoqFomaAyj54ef8JFtR53yf93z3fcTDo68Wuxxas5yab/mGBIz0qExS+dBZw/InBNMB9yqH3OCNm5kViIray9arwiocaWQYp5pSLki/nLCtwP+X0fZWtjlQcfGZQ9Qu4q+w2Hs+iK6g1tkwsTrU7uZcKU5DTccHWWMkrNO9Gp2MiVfNUYStJ2obLjURNCQS61d39aR+hPrZ0DarilkWFIuvOretu3jNPwRuP41w7h1qLQFH95L3dfFxYtjAQ+1TzeX1v3DGGAr/zBDFaXyKkNedpsWtdXOIcyHS7DX5wfzI5wuLHrGQF3Vogr42wZleLopbbloLi3YRV7YuhWQpiKEInhr63fVWKp0irJHC8Wr1mrR6GYh+JEjegF1dI+cJCTw4pXhu4wVbt+QqRIYhAh18XCBb65kRCN7/E0i9zWr5IGlGnl6CV500OInckkMpvCUajb6Ahd8AEteq/pT2yr3pVkcCJWVa/W2DtTO8/TE5Vr+gpHoDv2wHY1EJ2ZXe6qpKSH3OmLx4NfX+uwQPsMdi9vqgIGk+khBMMiLMCqAZmGZQMWIH1esjNXaIb7JXto0ZL1rzfyz5dvuv705onCDGnKwhWgyxYH6L5NtUlX/ZpqknotgX1nUixD3mglsvnLdJrTOFuVNt8kMOYGu3F4cHxehAycpbkJHFhuHCq3sWOxUytBzusL2sAyV6AjE7s6s4GSvWeKMzkmX1uAOnEqihw4QQAstxZVtgJDraU0Vzndd/lwC9Nb+im9tXa8Qc1L6Ed5PLRZZemRR1D2Phq6IaQbXZZs8hst6jdrWn09TkToe116lLfzK6fgpWIflWuuGSi6u1aqcfI14bDwSLCOWH3HaVGRIwfiQ5cReeitY5S3yh+AhFJCt3HMmBIs20nCRbkb5k0lvGQul9DNsa4OY1W2cwGWRlH27y8/jD9qtCH0zNT1cOi+THxiiFlFBsJI8/CcfyLfcojriDfw9XtZ6Nb3t5aS79U0q8VqOCKVaPiPR+uUTdf2K0EMPgsdwwKb5EYE0EFf+KhFTzJnO1zfW50VmN5jJlTFIG7UbASKseTb8Dk3yKaFpWd3CXyehSG3DIc0gIunVU7dJiw2cacw/UoVt7YWK/LwxsdRFr2XNes/27OswB0Styn9wp4tQ13bgnnIzdvJWTx1wNk7uvdawKjIKKq/Y1H2E8vL0zCLMDHSgmoaMic+2uWdbcWsrJy/bF2PAaUqFkByZgVZyBtgWjjBMsMwLVfMMLxwh5e6wnEr+KgGAYn3mUwJdPP5ee9Z12AhQL+l7GNoz3ckADQ05ch9zUDslmFiRUfIyJFBU8lC9Okf18fb7RAkLaJ5PPVGQ/XMv3E0FVcnPvu1cD0C+y4Up4Qv+HBz1nzVoGM5JmqTOCQvsxlqdzdE6/z2VghUwJGpgypkGd2f0yN4Eh/LZxUhy+8PEdZKI6YDIulO86Ojrp/d/BNUlqkZ8/R6KvDN4B8MV/hApfOGH7dhTv4pFYWFgxXOcIrhW8HJnB1ebaFdZCPDAOdiQT0dKogEWYfC5TYevXhlBkyZS796Kt2t3IJYxlyju6l+16kq6RfNgX9R3CyRsZv03DkPBiIVxfJyzWi4eiG/YKru3Mz0A2Sv3tqVZlpIw+mragy5kJnqUSQcNOk+J5z0xXbQtoviReTVVTOWwLGntLcMzVUQ8v/EiiWeJSD25ar9em04gMW00/T0zLSAkgIjvkA36jf5jIEVo2fPOzRmHfIAFFH+NBkkk51VcvyPJrXrp2clJOiKCI6xsEpLZeoYA5aaDO2qHCjZyEGdZuTNwjTarDvg0GyXNKWy6JCjtlX6lo9b9YyZMGG+fMaj3YBOVO4fclLRSJHQFUUVdpxhjHfYAyswqxmun4vhh9CCFkMevRqLSv16R3Xg0m5vpijT64SImZPOdoQZI+pdzWznfl6DW+bF8Ss6wNTak+Opo6gc/ucLk8dRDqRlqXhSz4oqF6w981qZSpJbQME9ou1DmETkJMRY2oZfmSyf8Ej/lvUjISDACL5biIe8oyPcLA8YLAFVKLW/xnfEUzoqgEYy2gGfQjEt8Iv1F8UI6EUTslWjUPRenOzaHL7tMxXcHSRDe+tbjdszCt8/6XgSi0bN1heqscHJ2Ik0slq/8xiG7Al5M6sJ+0qmGKMEyRAaHL9UWpmAtvneO4cBasXjWtSAKRlA4weFAwPcuc/pH69kpcdMmB3cvOjRZcm1NYxISLf2umoN0giM030qHLQiStiPklYe663Mb0KbYeeOJqj4K4XbeeV4tNET8ZnSLrnQHP7djh7SIL5UVHtyl+GFFnXpf6Fr/1J8KlO7xHMi9n35nG6F19I1aqolltYcoBlJYIe2+FUGGTPOpJP8O8ARsFRHk4ODkCbeGEpv47o530tZvF5MHFGWPrX6q8j6gYD1120bo30XCaBXi2VAGFA48YCTQ54ayyQhUUfMgkqafV6wKcTvfQFDIFEP50qctswNBUIHEy8Y0VycGXsfbiDmS4Jekb9POcEOJeihRxg8G4TrAK+Sip6mV68Vc68mt2yVq8iCp2fSzGOsOnaOO+lAgk8N/10N/SvPSl933Lo705NPzcV+58eL2Qf68ufWSzbeqlFRrJX+dP8vs7yiTsbuf+Fz9PrwCwuwANLj6oE5Q/i8oHOhqWzUV6KuOu6Z4JtwJb2wYdxENPYrSz+nU7jKLlGLG2V5obKvxy4EBLEpJKb2aYtH2xZvbgvTX+QnILWvZSE0tT/5SbnrthU5/4XOLxhBRbHPoV+e2bB312np/pm/cz+UkSBfakjU++HRA6lkqWsOnWNFoE+jwoan8BRjHGHkZ6n7rsLo6SWl1ZC47MLbpFZ/YCTMXZH1jnbd1hJoOI4aoU22E9NzqpRiyIZcrp8sHVbmDzIFRHlctmI7yLgD17SD5s7YV95viDMkAvKIgtbhwx1ysqCrG9r2jsyngzJyQy5FgpgtiVpoEz0Qafd4yPKf45prpEejGTSAa340AM6YR6xbTaEZph3BUPP5DpshBQx8vB/G57M197PNCpVF+5aYkvSFtwUOW50a3Fv3rkGJS0z1Tfhp7epDi128gU3P8pxIsHzJeeevZ7ANkrReqb0WMczIBxjphOcaIxCbDBcEcQlW8IrfqWnUCG6ZYG+BWY18SFoFVhJM4knCn1ctezwimj0VyB2k79pe1mQFPZ4F/RQHHgW1HFsnhHy6MUtNm8c8aiASJRVUkW1rEC7iTa9SFO9Bg8OPRO16eaq9sP0sIasxZ5FaXH5Qg5JiwjKl9N79+v1DbUYoIOaviPXnnWRsVBwfIEzR1J81JyiwKkmsv2fUr3sJleei2/EiEAr9GqlMFH/RJyikTg//TMtSUd2r/0UtZLgYbWDhFQyXGWgcah++SY9eI3vy+u281sbZuhTObcJ+8p3p627W+d1oulUVI4IVAKfTkOx19fY32VoqqPfRXhBMh34S3tecrreAccL1eG/vsX1++2AA+8kk+ASHY/dxU7kJ7ghpSUnLDxuGslAngLCZynEcmQJYly0WhmmtxepkZ2GFeKzorE+F65BNDocM89dnccP96yAnqTy7pjMnj38yE9y/rZVFCvYnPP+pMZ3b5PDWjyr0Rs1qJG9YGsMX4J91Hyy9fBl/BZ3zWe8U+2ftVH+i9nLx+1DnMCOxp70btt8/M40p30Qqc0Tl8GaxCbzJ5CEh1vFzPubIcn6irwKmVGnSyYJMxN89Ht3QFaVmdWtabikcCYhGAJC1Vs8jCdIWz/iiQR9bDko7Ui6OXBdB4olbO7JHTRRtxABSW6Fr8H/E6cRqxWmsQTUzEjFVpqWnHcYk1eNXkP/JdPRWQRn5Vu4gsY8wrH34qtQ4pHRS9TD2Hr2+rX+tNv9Rfxx0HLUjVoWPtO23DNSgZmKg1HB9m3558I21vxFq+89//ddPxMLFipMT5g2fKCCFNuEKK/MLEtZfN5+I7O266DQGatW/0CrwzDaojba1l6JuMCCUJhbGN2aNBSwvacnpiu3c470uD+bk2O6xQPHq9NSiq4tranEOXYVCzPIsLBa8gKxmcTlLgVgumtyOrlnWvtSKWOHLbf+ce5oBhqL6T2rFPe+76Kg48u0gfBBnaB/iPP1Rqss3KXjV6Hq3/TckfBU7nPV75zoRVHYoMop5nDzBWFbT1TTqE58kWxx7N9F7PLW2Nmh4WvRjYe5OVJswi7puwcF9sb4ngOdFY21Jni1mK+NME4Nnx8hXnNXQsfE6NSQKAu31BZgGiMageERYqHFjQ8UDLCUimHjvyqG2LdR9kaowjdlA11QV07tayWntwLVHRrDXmkQwszmbO6pBKJiGnjeZjCWVBcJpwwewDZUjWrdxVQA2hj5d/xjgjrK9zKLtJF+sCk7mDF+KQntK6IHSfFDa1UXgWtWnkUtysfoLXX4gmtly6gwCflylOLpdfI4NeuS4n28/cRdSMOeIlNBp65ikC6Nf6qw2yoL89eAl8nbtPdZmlq2IJfS1Klc5jop4VDUrpOKTwEsS9EB/s1p5GFAUPXpEP792P6wX85ZEH6VMR1gJur++jiIN+23vR32HWYDhAfibGstsWxt3bOdXZo9Z5Ozwhusjb3pQFhAumo9YT5WNt0MnTYCAt0sZYixj4q04FW7KEDmtm07k41PgcQzuWcjjEgyY06GJtCUll3vMt8KEGpnVmyp5YUQTj4dQiRWSYDxYCHm0MHUIoOQ9H13Lg/YKZI8muGviu09tMm8uq3qEeM01tToy+b5Ao5gaiSz0Hr9pLuJK0qq9Yl9E5wW+DCuv6Kj+pVAD3K5nNrd9tCDEc+uGk4qHhqPOi7ruO3DpDANY+yrKOxdh4cl2iD7HXzx1eKNyEZVPmo/R7DvB1tm7Y565hu+N94JYDSW6t9BMolwoFuEuQ4NMjopeswhRdNtDKRW50AoeeDc65l+mbi5MWXNvo8c0k9HRgpwey7wRG/BlqGlhICEFYvbmHUkJnthew7cG3iEL7xP/GFvZF7sz/stVb15uNbanksKTMoS1ZKhfh7XJz0HnlxftY4uhFYf8pN96O/7JfTHDG/YY9uwpBixlsSpiQXXd/tlMixoswySEPdcKMNOOMbgi8p1R5Snk95By07ZSo44fgNC/jf6/ncbbt7kcb6gDjXTojnV3cw5MRMPM7XHpstDM3XBawFYog8a5POBKRO35kVSMu8mFN+NeDnWWqhefkZbEOWy9EIRADbTfkhYYnPeLnIhejhMVlD9G6BTHsVtgpgJ0OnlP/z8UXTNFbZ9N/PhRSPiRqeXEPOPUSYOrvpwTMw36zclqBBC4ibQ7JLrrqvsheulm+1cs8tdZUTD6jpTOshwNCy8a6wU4kZKHiJ+CSFhjFOpG+ZLLUlVwmeAs9x9pd/97pNB9YZnFvkIxfWQWKrRl3wFf1cosEoB4NkqBXiQCqRUdtpQ7YRLo+Bi7ghMWuWMhzDNq10LfJF3qP1oxo0+7xmxUSsPIHSoaRGmYCnWbgJvQSbXuIoz1V/ev8op3SVEzMfEenix/67WWAvQjnpwpF5Efz64Vo1KCMbIqsA2ypqG6s5Ygs81BuXANp1YtyYbYU/jylqqBxxYpkn/NPiCd8zlgfMJ1COdnOGvPHx33qnoD2730bMGtS5oWyP+AW21HzT3x2xgec28WqZTBKEL6FHddY2HvFYHjfN01gs+GvtC6GZRCthrsmYrGEZU85FB1GELytKO/mdo08eVED9Abu57ANIMmZdqLsE9yAaUb1rxB2MXDMINnNGrSV1XjKbQbqBUqKcOrIW0X8ZWcvw+xIrET6Yw0kRgG3Y7gvZyVsSRbcbbJdOcaxWIojmQqTMVBAZFhxW4GodCMX6JpysH6zEW5hUZ/JvmxmEAXCMB6++aJEgLRo6fDMNERd5j/w8IijhwAGDrVEk9vZr5jIbmXxj8COhilPz1ftkCnMN+sLqTOCscAY9IsT5lShweX3NOhb0RWSOwqxysxU26sgL97f1uKr7UtoL0ZFRUVI8cXpLh/ZvtNUd7frbQOdC1aSLDlFjvqCAPT7CpXTPqDOWVdyLBdTJULR1nj4Lg3i5ws/P2OSe/kuYzJ+dkQgkIi8b8H9L2KP2V8Y+dCo2Nf7A4ygsi2GcjABT+lTKx/ZtIliV8eqGOjy8h/EPqaxKmVOZLk146z2bccNjJZSQ6qE8wMKMG3uYjl0aQoQum7DCDlybDQd9fSm0ZQD8+tZrsJdy5A9/9gCT5NSEMmkyqu6s3JHv2/dlJE//4UbOERi7IbIjRRBXVoeEeipLNGyn8AB8pVDUmVf47S0JbgTROoanbLoadsDdF5LCvfn9INFEzBvWnpia8KAAlXewfS7fX07iz5TJbu/MW+vjplL/+uU4whylAO6A3neXUqpmYWmPvGmY5jXuDElLX8uZohg5Az1+o6vn3IZ2JIPEci82QIu1o0QQFkzt1+4Lg83seUn64CfbplLg7G5i7azz3TNyW6NuD/YW1zsJXcPLLCNZXhxm9fgdl3en4bVa2OfzVRsIiM6DgOw/wjHSKvsLNWa2ajcsuQywPU6BVf1cuUMxELzE2UWkBKQyDnmYdKYQNMIso0VZdts3ZZ5k2OBjByUP9nWeD3MBU8RRVnCOxlDkH9jurr04KP8+oj25J7QhEir5iI3NKIo9A+tl4gvduevggMyVJRmVDVUy29w==</t>
+          <t>yVjpCgZpNvP7QamSsG08SkVPgVEW7yFKfOpjoaZSZSuwUg4fWnM0VZ4O39oqkc1VRZCTJlXkLudtBIfPdKirZV+Ghnn4lQsAI3ttes4eOzZERMQAGP1ri9no0JngnQZlAMR7NXBYorstHl7pucHeODSkWI1JbklAq1yhZ37VfPOTgVnqMdc5zYbD+mpeDjXUL0OYszDEl4NQkyoW92IEb4+XjyJHfOJbnZifCUPshy938n2znPU1E2pt4yCk8136xC9sa1Lb6eUn1jWQMcy+DxewnE727AjOYWG5qLgf/mgefdLiDJyNbGkec46OfJG95XsIpQTOs7IIUgQLJz40T1ptPKhOyzg95+wk4ICj2eVbtf1Q52uO5Rge2GwJGJHwv1QwQpm6iCCLovAESyKzEbxOjVZblEJ8s2kCQdlnEQHbUkybVM9mHtLCmaRcwHDoHi5Xr80vTakpKrFDvHBaVKOaT1DDy3Hyu+o2J7us7NzlC+5aCz6u5rQQbhnt7D/12M3khEaOfgXe9QmOkOYiTIBTVbVB/aLi8g114rRQrOopqkXhMe3vmdTf3H/QcQ4kId4B1QxLvW0o1lx6bEVjP3SkoRfyBSq1GUDkFz07hFOv88qhYM1EzOxP/P5Clcu+oaBrtBw7oBc44QlcZEwApcwJR0uzFzEe8xwDyCsdmUwC/GNLibMXU/ZWPcz9GGBGwLQdGbnCCkRQpE688s17j5b5In0I09NT7Fqsgb18YnH4Wjcj9YbMijo73g3fEzKeZ6fI7gb3QsEjW3ApLWp3CyHVDcxEHoP6f5C+uXrjdeYjgywjfSJbKOVbfp7WjuEnvDb49d0V2oKTJqijpqeyRxEORd3msPTIjj/qNC3c78L4CNDmrv0+C7X0c0gsKt/pkLzp6AixrWHl0DztRAUp/OAoE007jpiLplCdr09pzD3dwZnnW/Yltpz3/95fHlQYMABiuGMSTqe2lpIMvfysCVD7MeHR6iufKNzm6enXzoX6F/qlTm8hTUm9qGy714+4ZeyWkC0+l4rQWjWY5nRwl5/8WU6khzDv2V4o1W3KL3PlH92FhW15ZgfSS5IZr6BFcdB8KtmPCQKgnMoAfr/yWIFcqDT/1YZ4i1JFsBWfnL83PD1jtZeEmwrs44x7DHLIzbOP4aMx3PshvcspiMEGUlNbudrhqK9TNBmq8WeYkeE2TwxjE2oc0ZJDqA/pVLriKobA1AQXrT4PYWRQfmfx4xN8JMPt3pnMWkiLzDQL8nj5nqrn+PJA5j1D/NV7CgCSx0HENcjtV0Wsdpz1EUiWdJc3k9Wr4MlR9SKybrqV2NpGE+NTDd6QcZzCIa3xV+fQOfb/8ouj90f+P/OCeMFy2cArMBpqTVdunnt/fNSesvdsdLnI27gsR5EiHfEPjKGZOnUSn97yHwisUabOpSUZDbW95d5H+mRnVzIgzI/kwPv5TQ6L13/4/227Z+MfNnK5Wbjpxmxm0fBP6fu6f6VTaGULlPUYZ+sdWZN8kgDS/Viz2cfBVhhG9OZPrZs5BoKdO3xbFLJYDK3eLMfjuei3O4MQfVWTDqHf0a3/mFbA22BMCQZHN6qrPiHtXHw2AkkUaHiE+deVHPKMt2lGo0MS9qVv1wpjSvfXtc3C/0ri+BrttJo5G8qnBu3XcSRihZlcBTdKa827TLKzmRJVNBC5zo0zQQn9rKpCqH9aYjczqOueYdBXn49qWjdWM9+qs7+uMARvRFWba02Adxs9N2MBSJG+0Kpl/dWRQIJxynbuwXxwZXUBmOIFsJEQR4oWdwIJoYchkfB9u/2xtkk3pC8cQYbKALrd/fD38EEwaNohbTRjSRWUmQXbOdRwt65V+SL80phciX7GTmNsdB9nPjryASqi3m2Jx6abferF1DQJYaDwA1Lfdd7kXvblL19MTpAKHSqvr/Na2ZIA1cxxCZWePzYbxLmSuVR1LWs8XSytcMcuywke+0pd4GuTWlHIth4ymUM2Oa0wEcYACEHGAN+OdfEgwHh1hpF3X5A+Q/NKq8idS0iZAJ1uBTpOcC4jqOCQk7h97cVqAr3AztHpfTJ3oJRaNqiw+4sfrFf5hh4iy65B6WBkkGrAQdp57Aue412MCNP1NQMY5BgvhooVxz1twPzAmkZU8ncju1d0v805ZFsvXnkC/ndr5A1PMIPYfwrcXDzeHyScK75NbppH/HLtOPBdMoP2YriCHTZcKMFnxToDX8o7Z5cuhkx2YMRqirdq3r9ZNrySb2Qqzrv9s+H9DzP7xMc4VDbHxWsh5vwO+YLYpEx+qbapjbvHFstc435YEIpPDE83Y245e2gW+HiKe/1f5YNqr/6nvXrCbba3cw1wOb/TqxolMbFtY2w75ZYt+Wfn4t64HYewQGWcMyltMPXc/3n3WcCMAMfboWHur43As1fzlezwy3T9EPhwyoj+en8qh8zkv+anlWDlsd5nsvuMcY+uVYkgFvE3HqN8WZGZHmqc7RiEmcsoI1YkHuji4yHKrjv+ilMUp+y3rUOVsun7o4RRGcmAsfBJjmtWfr1RkBxU+mf31L0K6FC61B+Bfd1LQK8/qp7MG+j4W+yqjn5i+lnmFDjkqIQ90NJbGs+tR8iJrM4BkNVR+5KTpfaK+1oZCv7ffKrFkQjMUIKhLkn8aa462xyEz8y7budiSOZ2DVpU3NLbOYv3Xtr8TgO+A0aJXD/jMpkPt2z/2j+9qhScDZ6vtl4lMMRZmnW1+LZMRk87qiZEdLmskko6DZGpFp1SALvpRo5c8YOETq+wvyrfWjoui0frCCqvT5Wvcpo5jM63DsoSCoboUFnSjHvgPQtHRo+LoYDqFtCjBnQqVEYiP49yRh+qYNsHkH+OtidnEJx9NoNGSDBWmzkN4hly9KjK6jGB49spz87W0E3b1ItmHK1BtIppM8CvoY6joKy9zLEqU2GeHOoZuwYuQAA/O01A9TPG8k+UPDNBzQHDnymn80Lq/5zyApstPTJIBfRcZHRQgNUMAW3b9TL4AgGmbL/WAs8j/1G2FVezK0g7dREt0UKsxfO2Utp3sc2i4lb0fqoLDnFWrz2ei3sVesPLOotABXWeHEdiGX91vT+NZLOXBXLCLiZdBM3tKQIctr+Xrg0hkCCXzKppC9WBlUSwwU0kYBNOa4C3zwyc9YQNbAchU8crEueuJbt3tnDDB2jBg7kJ70yEKw4jjC40VLQTGMGZsWnV2I9ckaG3dLwfpIxL9PdoeFlFMdU9Q/UpUHLx/uTb7JsTKCDi+rqf+gS1pnQYezZfR4Pv//sg7TIp11gdEUFXfLGk/JHVDrLYX+BR9tMFOpl2FQCkux79jwsG/UJxnZ+Ya5eV4KWvDgETiL074jZHDaqDuHAeZ5yENXpisfLQinRkbL8n1SoxCeYvbwM5M0DFNvqVlrGy25Gd9DlbzZO6ULYGMpLN4AKtcGrj2GErkR6UIG44iSmEctnAAA4fSOKbgITDiaVLVrNPkGsBNThphbqbxT3sIOjaoWxT+dLwuGEL0pzLh5dHU7raH5w5XZTVGRHz+Gu2LJVpkVERFCEN4h6bZws3mwo91tBXNIlK+xFETg6urE9Bl/Ymin0A4zlTrTPfQMf4kyYEp1EtxeHEoVbJUlKDCwDZj6NaOu7z3E22vr/cHk7rde8RGy4krw41DE4M6UF7OH8r+keXF98FAxm0RNtoQvm3nPTcIKB6OiD/G6qQL59CF+O4UzxvPeVYv6dITl7JEr7Xur8MzOwYYMXmjm4b+p69oNvim20NCGe/9Sqt2m1mEAL5tG3hyTm0ldx6zKfJ0inpaEicVtaMVbkKH573MzZIxE1rWE71I74g1Vefl59fYqALWCMY5UHgPRtDOcdhhFwrNtXuJrMRrlYKVtXNFZ7KguuYHbhP5qg/WTUVchvXitsWA43+bWVwuV9cs3N13KvcdD2ULJsYyeK5eNhJVY2vJOhl/DuUhKYDU8Tt64dCvLs98h4JSE7P5ZpZbmVRMgKqkeM6Qhy9t2Bg4JOMiLY1UtPeXJKLpDlqUHOOH5GETl7cHNAgllThiOccO4UXQzZ0JrOC5o4D/MVYRMLWZb1iHLHJtqoMFDIWMcZKpBEgofgMxrhC2J7Us1cQrG4fZ3OAXGl4LX409rXBazjELVRD8csvH6meZNZk275/nQblHymNHhbKslNwLWKUpDxXPorJHAAOht1PwPSU7zRtZ/CXHN/84seajt8xBVIGgJPwoBA1yU5hBGmRPZCWWEsEAvINxgVRyG9w2DPkLlulVm+qii/kpQijOCCBUXAI/E0+xsMKF8qgzidHqaKA4LsmxtTNErvjaTc0yJ7IxpC6SyqEOSc2lZ/9Ej4WrJP3IS7ss19cUpvnPCXSNZCulW4z0bl/++vaYD9NHUyba8fYGc0PwwUDX3n6+EqFgNo2lP/9/J1TIvExBG/kbuudsEbVdmIOBbavlcZXr+tWm5WMEWgHR+mNqrmYt1tMwodtLuqqLfSmhxtIcMxBm+PcQrbQCfx8wrouweE3F1o0UN0yeeCvD+G4XBsoxVSx4M4dKeQHUDTYOzOoVJXhMUhrWl9Wqj6s49j2V9DRebXAM+yMzKQ/PxCk9tkBmdVNsRNU9no4gwKFK0gv3cZYpHn1hNAgP2s6uQzPsrWQRprx0Gd7ri+hJlhtKk+ySC3FzzwUXeclt6eg2z2SN18UEHPxlbySQJvwd2zM1qpC8VIx1tXoXvB+nQaANwewEUtSmEXdRCAMA4AygjZh2qXGNiYsXQF3r3tT3nrSVZeh6YSa1oatLxyJ/VHz5dh4iIx52EddQIhb9VDY7or45Sj0cNID2CmjJi7wokyUWT1GWHtLbTB/CDp6H5G0gK8zCPpJM6leejhvmsBLhm3hvHgR2qobmAvXUjEQJhIA+8hxOifAgaW+BDZTeEg4zwvZCIloiCcwNseeDOw0CHkjLz7jV4F3mmUET992iX82rQ2k5qPGTzUzvo8YN4m7PWYoLkOO5PpMVjYwlhbwLE6xjWhs0xja894PV1NeNULaxnCNN8WO</t>
         </r>
       </text>
     </comment>
@@ -281,7 +281,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -418,7 +418,7 @@
     <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -924,33 +924,33 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BK162"/>
+  <dimension ref="A1:BK163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="A162" sqref="A162"/>
+    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="B160" sqref="B160"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="36" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="41" max="63" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.9296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="20.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.46484375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="20.73046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.46484375" bestFit="1" customWidth="1"/>
+    <col min="10" max="36" width="20.73046875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="22.46484375" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="20.73046875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="22.46484375" bestFit="1" customWidth="1"/>
+    <col min="41" max="63" width="20.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:63" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>[1]!EM_EDB_N("2010-3-29","N","Columns=Name,Frequency,Unit,Source&amp;Order=2&amp;DateFormat=1&amp;Chart=2&amp;ClearArea=NULL&amp;CellFormat=1&amp;Layout=0")</f>
         <v>宏观数据</v>
       </c>
     </row>
-    <row r="2" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>63</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>65</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>68</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>40268</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>1862000</v>
       </c>
     </row>
-    <row r="7" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>40298</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>2498000</v>
       </c>
     </row>
-    <row r="8" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>40329</v>
       </c>
@@ -2287,7 +2287,7 @@
         <v>3174878</v>
       </c>
     </row>
-    <row r="9" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>40359</v>
       </c>
@@ -2478,7 +2478,7 @@
         <v>3827000</v>
       </c>
     </row>
-    <row r="10" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>40390</v>
       </c>
@@ -2669,7 +2669,7 @@
         <v>4531000</v>
       </c>
     </row>
-    <row r="11" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>40421</v>
       </c>
@@ -2860,7 +2860,7 @@
         <v>5215000</v>
       </c>
     </row>
-    <row r="12" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>40451</v>
       </c>
@@ -3051,7 +3051,7 @@
         <v>5923000</v>
       </c>
     </row>
-    <row r="13" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>40482</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>6639345</v>
       </c>
     </row>
-    <row r="14" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>40512</v>
       </c>
@@ -3433,7 +3433,7 @@
         <v>7371000</v>
       </c>
     </row>
-    <row r="15" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>40543</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>8079000</v>
       </c>
     </row>
-    <row r="16" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>40574</v>
       </c>
@@ -3807,7 +3807,7 @@
         <v>636238</v>
       </c>
     </row>
-    <row r="17" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>40602</v>
       </c>
@@ -3998,7 +3998,7 @@
         <v>1234866</v>
       </c>
     </row>
-    <row r="18" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>40633</v>
       </c>
@@ -4189,7 +4189,7 @@
         <v>1890000</v>
       </c>
     </row>
-    <row r="19" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>40663</v>
       </c>
@@ -4380,7 +4380,7 @@
         <v>2587000</v>
       </c>
     </row>
-    <row r="20" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>40694</v>
       </c>
@@ -4571,7 +4571,7 @@
         <v>3290000</v>
       </c>
     </row>
-    <row r="21" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>40724</v>
       </c>
@@ -4762,7 +4762,7 @@
         <v>4008000</v>
       </c>
     </row>
-    <row r="22" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>40755</v>
       </c>
@@ -4953,7 +4953,7 @@
         <v>4711000</v>
       </c>
     </row>
-    <row r="23" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>40786</v>
       </c>
@@ -5144,7 +5144,7 @@
         <v>5519000</v>
       </c>
     </row>
-    <row r="24" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>40816</v>
       </c>
@@ -5335,7 +5335,7 @@
         <v>6331000</v>
       </c>
     </row>
-    <row r="25" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>40847</v>
       </c>
@@ -5526,7 +5526,7 @@
         <v>7173000</v>
       </c>
     </row>
-    <row r="26" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>40877</v>
       </c>
@@ -5709,7 +5709,7 @@
         <v>7869050</v>
       </c>
     </row>
-    <row r="27" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>40908</v>
       </c>
@@ -5900,7 +5900,7 @@
         <v>8811000</v>
       </c>
     </row>
-    <row r="28" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>40939</v>
       </c>
@@ -6077,7 +6077,7 @@
         <v>83.206599999999995</v>
       </c>
     </row>
-    <row r="29" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>40968</v>
       </c>
@@ -6268,7 +6268,7 @@
         <v>1625334</v>
       </c>
     </row>
-    <row r="30" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>40999</v>
       </c>
@@ -6459,7 +6459,7 @@
         <v>2437102</v>
       </c>
     </row>
-    <row r="31" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>41029</v>
       </c>
@@ -6650,7 +6650,7 @@
         <v>3315838</v>
       </c>
     </row>
-    <row r="32" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>41060</v>
       </c>
@@ -6841,7 +6841,7 @@
         <v>4637186</v>
       </c>
     </row>
-    <row r="33" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>41090</v>
       </c>
@@ -7024,7 +7024,7 @@
         <v>5633585</v>
       </c>
     </row>
-    <row r="34" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>41121</v>
       </c>
@@ -7207,7 +7207,7 @@
         <v>6608713</v>
       </c>
     </row>
-    <row r="35" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>41152</v>
       </c>
@@ -7390,7 +7390,7 @@
         <v>7677163</v>
       </c>
     </row>
-    <row r="36" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>41182</v>
       </c>
@@ -7573,7 +7573,7 @@
         <v>8628940</v>
       </c>
     </row>
-    <row r="37" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>41213</v>
       </c>
@@ -7756,7 +7756,7 @@
         <v>9533889</v>
       </c>
     </row>
-    <row r="38" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>41243</v>
       </c>
@@ -7939,7 +7939,7 @@
         <v>10415593.699999999</v>
       </c>
     </row>
-    <row r="39" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>41274</v>
       </c>
@@ -8122,7 +8122,7 @@
         <v>11382344</v>
       </c>
     </row>
-    <row r="40" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>41333</v>
       </c>
@@ -8253,7 +8253,7 @@
         <v>1505763</v>
       </c>
     </row>
-    <row r="41" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>41364</v>
       </c>
@@ -8436,7 +8436,7 @@
         <v>2393038</v>
       </c>
     </row>
-    <row r="42" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>41394</v>
       </c>
@@ -8619,7 +8619,7 @@
         <v>3325132</v>
       </c>
     </row>
-    <row r="43" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>41425</v>
       </c>
@@ -8802,7 +8802,7 @@
         <v>4270076</v>
       </c>
     </row>
-    <row r="44" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>41455</v>
       </c>
@@ -8985,7 +8985,7 @@
         <v>5176609</v>
       </c>
     </row>
-    <row r="45" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>41486</v>
       </c>
@@ -9168,7 +9168,7 @@
         <v>6139879</v>
       </c>
     </row>
-    <row r="46" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>41517</v>
       </c>
@@ -9351,7 +9351,7 @@
         <v>7222825</v>
       </c>
     </row>
-    <row r="47" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>41547</v>
       </c>
@@ -9534,7 +9534,7 @@
         <v>8240792</v>
       </c>
     </row>
-    <row r="48" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>41578</v>
       </c>
@@ -9717,7 +9717,7 @@
         <v>9211599</v>
       </c>
     </row>
-    <row r="49" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>41608</v>
       </c>
@@ -9900,7 +9900,7 @@
         <v>10083857</v>
       </c>
     </row>
-    <row r="50" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>41639</v>
       </c>
@@ -10083,7 +10083,7 @@
         <v>11769019.380000001</v>
       </c>
     </row>
-    <row r="51" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>41698</v>
       </c>
@@ -10216,7 +10216,7 @@
         <v>1755837.25</v>
       </c>
     </row>
-    <row r="52" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>41729</v>
       </c>
@@ -10407,7 +10407,7 @@
         <v>2781098.9</v>
       </c>
     </row>
-    <row r="53" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
         <v>41759</v>
       </c>
@@ -10594,7 +10594,7 @@
         <v>3798125.11</v>
       </c>
     </row>
-    <row r="54" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
         <v>41790</v>
       </c>
@@ -10781,7 +10781,7 @@
         <v>4885630.78</v>
       </c>
     </row>
-    <row r="55" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
         <v>41820</v>
       </c>
@@ -10968,7 +10968,7 @@
         <v>5811656.5</v>
       </c>
     </row>
-    <row r="56" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
         <v>41851</v>
       </c>
@@ -11155,7 +11155,7 @@
         <v>6791680.6200000001</v>
       </c>
     </row>
-    <row r="57" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="5">
         <v>41882</v>
       </c>
@@ -11342,7 +11342,7 @@
         <v>8038084.0999999996</v>
       </c>
     </row>
-    <row r="58" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
         <v>41912</v>
       </c>
@@ -11529,7 +11529,7 @@
         <v>9189655.8000000007</v>
       </c>
     </row>
-    <row r="59" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
         <v>41943</v>
       </c>
@@ -11716,7 +11716,7 @@
         <v>10302314.91</v>
       </c>
     </row>
-    <row r="60" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5">
         <v>41973</v>
       </c>
@@ -11903,7 +11903,7 @@
         <v>11169835.59</v>
       </c>
     </row>
-    <row r="61" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="5">
         <v>42004</v>
       </c>
@@ -12090,7 +12090,7 @@
         <v>12133876.35</v>
       </c>
     </row>
-    <row r="62" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="5">
         <v>42063</v>
       </c>
@@ -12221,7 +12221,7 @@
         <v>1064355</v>
       </c>
     </row>
-    <row r="63" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="5">
         <v>42094</v>
       </c>
@@ -12408,7 +12408,7 @@
         <v>1579234.68</v>
       </c>
     </row>
-    <row r="64" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5">
         <v>42124</v>
       </c>
@@ -12595,7 +12595,7 @@
         <v>2292865.6800000002</v>
       </c>
     </row>
-    <row r="65" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5">
         <v>42155</v>
       </c>
@@ -12782,7 +12782,7 @@
         <v>3178086</v>
       </c>
     </row>
-    <row r="66" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
         <v>42185</v>
       </c>
@@ -12969,7 +12969,7 @@
         <v>4034904.12</v>
       </c>
     </row>
-    <row r="67" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="5">
         <v>42216</v>
       </c>
@@ -13156,7 +13156,7 @@
         <v>4839944.12</v>
       </c>
     </row>
-    <row r="68" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="5">
         <v>42247</v>
       </c>
@@ -13343,7 +13343,7 @@
         <v>5588631.1200000001</v>
       </c>
     </row>
-    <row r="69" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="5">
         <v>42277</v>
       </c>
@@ -13530,7 +13530,7 @@
         <v>6224226.6200000001</v>
       </c>
     </row>
-    <row r="70" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="5">
         <v>42308</v>
       </c>
@@ -13717,7 +13717,7 @@
         <v>6795285.6200000001</v>
       </c>
     </row>
-    <row r="71" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="5">
         <v>42338</v>
       </c>
@@ -13904,7 +13904,7 @@
         <v>7153000</v>
       </c>
     </row>
-    <row r="72" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="5">
         <v>42369</v>
       </c>
@@ -14091,7 +14091,7 @@
         <v>7396000</v>
       </c>
     </row>
-    <row r="73" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="5">
         <v>42429</v>
       </c>
@@ -14218,7 +14218,7 @@
         <v>387000</v>
       </c>
     </row>
-    <row r="74" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="5">
         <v>42460</v>
       </c>
@@ -14405,7 +14405,7 @@
         <v>795400</v>
       </c>
     </row>
-    <row r="75" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="5">
         <v>42490</v>
       </c>
@@ -14592,7 +14592,7 @@
         <v>1538306.8</v>
       </c>
     </row>
-    <row r="76" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="5">
         <v>42521</v>
       </c>
@@ -14775,7 +14775,7 @@
         <v>2507278.7000000002</v>
       </c>
     </row>
-    <row r="77" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="5">
         <v>42551</v>
       </c>
@@ -14966,7 +14966,7 @@
         <v>3400483.6</v>
       </c>
     </row>
-    <row r="78" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="5">
         <v>42582</v>
       </c>
@@ -15157,7 +15157,7 @@
         <v>4257884.0999999996</v>
       </c>
     </row>
-    <row r="79" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="5">
         <v>42613</v>
       </c>
@@ -15348,7 +15348,7 @@
         <v>5263921.5</v>
       </c>
     </row>
-    <row r="80" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="5">
         <v>42643</v>
       </c>
@@ -15539,7 +15539,7 @@
         <v>6299473.0999999996</v>
       </c>
     </row>
-    <row r="81" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="5">
         <v>42674</v>
       </c>
@@ -15730,7 +15730,7 @@
         <v>7335916.7000000002</v>
       </c>
     </row>
-    <row r="82" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="5">
         <v>42704</v>
       </c>
@@ -15921,7 +15921,7 @@
         <v>8117368.5</v>
       </c>
     </row>
-    <row r="83" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="5">
         <v>42735</v>
       </c>
@@ -16112,7 +16112,7 @@
         <v>8683700</v>
       </c>
     </row>
-    <row r="84" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="5">
         <v>42794</v>
       </c>
@@ -16239,7 +16239,7 @@
         <v>923083.7</v>
       </c>
     </row>
-    <row r="85" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="5">
         <v>42825</v>
       </c>
@@ -16426,7 +16426,7 @@
         <v>1605070.4</v>
       </c>
     </row>
-    <row r="86" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="5">
         <v>42855</v>
       </c>
@@ -16613,7 +16613,7 @@
         <v>2666913.5</v>
       </c>
     </row>
-    <row r="87" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="5">
         <v>42886</v>
       </c>
@@ -16800,7 +16800,7 @@
         <v>3868100</v>
       </c>
     </row>
-    <row r="88" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="5">
         <v>42916</v>
       </c>
@@ -16987,7 +16987,7 @@
         <v>4908765.5999999996</v>
       </c>
     </row>
-    <row r="89" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="5">
         <v>42947</v>
       </c>
@@ -17174,7 +17174,7 @@
         <v>6058700</v>
       </c>
     </row>
-    <row r="90" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="5">
         <v>42978</v>
       </c>
@@ -17361,7 +17361,7 @@
         <v>7214244.9000000004</v>
       </c>
     </row>
-    <row r="91" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="5">
         <v>43008</v>
       </c>
@@ -17548,7 +17548,7 @@
         <v>8268493.2999999998</v>
       </c>
     </row>
-    <row r="92" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="5">
         <v>43039</v>
       </c>
@@ -17735,7 +17735,7 @@
         <v>9344100</v>
       </c>
     </row>
-    <row r="93" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="5">
         <v>43069</v>
       </c>
@@ -17922,7 +17922,7 @@
         <v>10289327.800000001</v>
       </c>
     </row>
-    <row r="94" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="5">
         <v>43100</v>
       </c>
@@ -18109,7 +18109,7 @@
         <v>11101004</v>
       </c>
     </row>
-    <row r="95" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="5">
         <v>43159</v>
       </c>
@@ -18234,7 +18234,7 @@
         <v>1186653.8</v>
       </c>
     </row>
-    <row r="96" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="5">
         <v>43190</v>
       </c>
@@ -18425,7 +18425,7 @@
         <v>1923483.2</v>
       </c>
     </row>
-    <row r="97" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="5">
         <v>43220</v>
       </c>
@@ -18608,7 +18608,7 @@
         <v>2751832.7</v>
       </c>
     </row>
-    <row r="98" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="5">
         <v>43251</v>
       </c>
@@ -18799,7 +18799,7 @@
         <v>3610798.9</v>
       </c>
     </row>
-    <row r="99" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="5">
         <v>43281</v>
       </c>
@@ -18982,7 +18982,7 @@
         <v>4733400</v>
       </c>
     </row>
-    <row r="100" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="5">
         <v>43312</v>
       </c>
@@ -19165,7 +19165,7 @@
         <v>5949400</v>
       </c>
     </row>
-    <row r="101" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="5">
         <v>43343</v>
       </c>
@@ -19356,7 +19356,7 @@
         <v>7169593.5</v>
       </c>
     </row>
-    <row r="102" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="5">
         <v>43373</v>
       </c>
@@ -19547,7 +19547,7 @@
         <v>8419200</v>
       </c>
     </row>
-    <row r="103" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="5">
         <v>43404</v>
       </c>
@@ -19738,7 +19738,7 @@
         <v>9630200</v>
       </c>
     </row>
-    <row r="104" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="5">
         <v>43434</v>
       </c>
@@ -19929,7 +19929,7 @@
         <v>10686853.5</v>
       </c>
     </row>
-    <row r="105" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="5">
         <v>43465</v>
       </c>
@@ -20112,7 +20112,7 @@
         <v>11553000</v>
       </c>
     </row>
-    <row r="106" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="5">
         <v>43524</v>
       </c>
@@ -20237,7 +20237,7 @@
         <v>1257367.2</v>
       </c>
     </row>
-    <row r="107" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="5">
         <v>43555</v>
       </c>
@@ -20420,7 +20420,7 @@
         <v>2012396.2</v>
       </c>
     </row>
-    <row r="108" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="5">
         <v>43585</v>
       </c>
@@ -20603,7 +20603,7 @@
         <v>3132982.6</v>
       </c>
     </row>
-    <row r="109" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="5">
         <v>43616</v>
       </c>
@@ -20786,7 +20786,7 @@
         <v>4413782.0999999996</v>
       </c>
     </row>
-    <row r="110" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="5">
         <v>43646</v>
       </c>
@@ -20969,7 +20969,7 @@
         <v>5695856.7000000002</v>
       </c>
     </row>
-    <row r="111" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="5">
         <v>43677</v>
       </c>
@@ -21152,7 +21152,7 @@
         <v>6942876.7999999998</v>
       </c>
     </row>
-    <row r="112" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="5">
         <v>43708</v>
       </c>
@@ -21335,7 +21335,7 @@
         <v>8127201.5</v>
       </c>
     </row>
-    <row r="113" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="5">
         <v>43738</v>
       </c>
@@ -21518,7 +21518,7 @@
         <v>9240728.6999999993</v>
       </c>
     </row>
-    <row r="114" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="5">
         <v>43769</v>
       </c>
@@ -21701,7 +21701,7 @@
         <v>10347461.300000001</v>
       </c>
     </row>
-    <row r="115" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="5">
         <v>43799</v>
       </c>
@@ -21884,7 +21884,7 @@
         <v>11534312.4</v>
       </c>
     </row>
-    <row r="116" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="5">
         <v>43830</v>
       </c>
@@ -22067,7 +22067,7 @@
         <v>12368828</v>
       </c>
     </row>
-    <row r="117" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="5">
         <v>43890</v>
       </c>
@@ -22190,7 +22190,7 @@
         <v>1314487.6000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="5">
         <v>43921</v>
       </c>
@@ -22369,7 +22369,7 @@
         <v>1889512.7</v>
       </c>
     </row>
-    <row r="119" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="5">
         <v>43951</v>
       </c>
@@ -22548,7 +22548,7 @@
         <v>2856814</v>
       </c>
     </row>
-    <row r="120" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="5">
         <v>43982</v>
       </c>
@@ -22727,7 +22727,7 @@
         <v>4235393.8</v>
       </c>
     </row>
-    <row r="121" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="5">
         <v>44012</v>
       </c>
@@ -22906,7 +22906,7 @@
         <v>5630286.5999999996</v>
       </c>
     </row>
-    <row r="122" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="5">
         <v>44043</v>
       </c>
@@ -23085,7 +23085,7 @@
         <v>7010201.9000000004</v>
       </c>
     </row>
-    <row r="123" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="5">
         <v>44074</v>
       </c>
@@ -23264,7 +23264,7 @@
         <v>8276329.9000000004</v>
       </c>
     </row>
-    <row r="124" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="5">
         <v>44104</v>
       </c>
@@ -23443,7 +23443,7 @@
         <v>9630059</v>
       </c>
     </row>
-    <row r="125" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="5">
         <v>44135</v>
       </c>
@@ -23622,7 +23622,7 @@
         <v>10907273.1</v>
       </c>
     </row>
-    <row r="126" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="5">
         <v>44165</v>
       </c>
@@ -23801,7 +23801,7 @@
         <v>12075243</v>
       </c>
     </row>
-    <row r="127" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="5">
         <v>44196</v>
       </c>
@@ -23988,7 +23988,7 @@
         <v>13061280.800000001</v>
       </c>
     </row>
-    <row r="128" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="5">
         <v>44255</v>
       </c>
@@ -24117,7 +24117,7 @@
         <v>1664343.1</v>
       </c>
     </row>
-    <row r="129" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="5">
         <v>44286</v>
       </c>
@@ -24296,7 +24296,7 @@
         <v>2753437.5</v>
       </c>
     </row>
-    <row r="130" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="5">
         <v>44316</v>
       </c>
@@ -24475,7 +24475,7 @@
         <v>4115428.5</v>
       </c>
     </row>
-    <row r="131" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="5">
         <v>44347</v>
       </c>
@@ -24654,7 +24654,7 @@
         <v>5496120.2000000002</v>
       </c>
     </row>
-    <row r="132" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="5">
         <v>44377</v>
       </c>
@@ -24833,7 +24833,7 @@
         <v>7047269.5999999996</v>
       </c>
     </row>
-    <row r="133" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="5">
         <v>44408</v>
       </c>
@@ -25024,7 +25024,7 @@
         <v>8446115</v>
       </c>
     </row>
-    <row r="134" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="5">
         <v>44439</v>
       </c>
@@ -25203,7 +25203,7 @@
         <v>9819935</v>
       </c>
     </row>
-    <row r="135" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="5">
         <v>44469</v>
       </c>
@@ -25382,7 +25382,7 @@
         <v>10808747.800000001</v>
       </c>
     </row>
-    <row r="136" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="5">
         <v>44500</v>
       </c>
@@ -25561,7 +25561,7 @@
         <v>11536275.199999999</v>
       </c>
     </row>
-    <row r="137" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="5">
         <v>44530</v>
       </c>
@@ -25740,7 +25740,7 @@
         <v>12107888.9</v>
       </c>
     </row>
-    <row r="138" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="5">
         <v>44561</v>
       </c>
@@ -25919,7 +25919,7 @@
         <v>12999097</v>
       </c>
     </row>
-    <row r="139" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="5">
         <v>44620</v>
       </c>
@@ -26042,7 +26042,7 @@
         <v>1174706.3</v>
       </c>
     </row>
-    <row r="140" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="5">
         <v>44651</v>
       </c>
@@ -26221,7 +26221,7 @@
         <v>2335982.2999999998</v>
       </c>
     </row>
-    <row r="141" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="5">
         <v>44681</v>
       </c>
@@ -26400,7 +26400,7 @@
         <v>3637614.9</v>
       </c>
     </row>
-    <row r="142" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="5">
         <v>44712</v>
       </c>
@@ -26579,7 +26579,7 @@
         <v>5044914.0999999996</v>
       </c>
     </row>
-    <row r="143" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="5">
         <v>44742</v>
       </c>
@@ -26758,7 +26758,7 @@
         <v>6409800.0999999996</v>
       </c>
     </row>
-    <row r="144" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="5">
         <v>44773</v>
       </c>
@@ -26937,7 +26937,7 @@
         <v>7619360.2999999998</v>
       </c>
     </row>
-    <row r="145" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="5">
         <v>44804</v>
       </c>
@@ -27116,7 +27116,7 @@
         <v>8882158.9000000004</v>
       </c>
     </row>
-    <row r="146" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="5">
         <v>44834</v>
       </c>
@@ -27295,7 +27295,7 @@
         <v>9968238</v>
       </c>
     </row>
-    <row r="147" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="5">
         <v>44865</v>
       </c>
@@ -27474,7 +27474,7 @@
         <v>10626789.6</v>
       </c>
     </row>
-    <row r="148" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="5">
         <v>44895</v>
       </c>
@@ -27653,7 +27653,7 @@
         <v>11116043</v>
       </c>
     </row>
-    <row r="149" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="5">
         <v>44926</v>
       </c>
@@ -27832,7 +27832,7 @@
         <v>11627835.1</v>
       </c>
     </row>
-    <row r="150" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="5">
         <v>44985</v>
       </c>
@@ -27955,7 +27955,7 @@
         <v>1325602.6000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="5">
         <v>45016</v>
       </c>
@@ -28134,7 +28134,7 @@
         <v>2502416</v>
       </c>
     </row>
-    <row r="152" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="5">
         <v>45046</v>
       </c>
@@ -28313,7 +28313,7 @@
         <v>3866854.2</v>
       </c>
     </row>
-    <row r="153" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="5">
         <v>45077</v>
       </c>
@@ -28492,7 +28492,7 @@
         <v>5319665.2</v>
       </c>
     </row>
-    <row r="154" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="5">
         <v>45107</v>
       </c>
@@ -28671,7 +28671,7 @@
         <v>6661495.2000000002</v>
       </c>
     </row>
-    <row r="155" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="5">
         <v>45138</v>
       </c>
@@ -28850,7 +28850,7 @@
         <v>7962348.5999999996</v>
       </c>
     </row>
-    <row r="156" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="5">
         <v>45169</v>
       </c>
@@ -29029,7 +29029,7 @@
         <v>9099894.4000000004</v>
       </c>
     </row>
-    <row r="157" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="5">
         <v>45199</v>
       </c>
@@ -29208,7 +29208,7 @@
         <v>10097826.800000001</v>
       </c>
     </row>
-    <row r="158" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="5">
         <v>45230</v>
       </c>
@@ -29387,7 +29387,7 @@
         <v>11134442.5</v>
       </c>
     </row>
-    <row r="159" spans="1:63" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="5">
         <v>45260</v>
       </c>
@@ -29566,13 +29566,192 @@
         <v>11886785.300000001</v>
       </c>
     </row>
-    <row r="160" spans="1:63" x14ac:dyDescent="0.15">
-      <c r="A160" s="2" t="s">
+    <row r="160" spans="1:63" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="5">
+        <v>45291</v>
+      </c>
+      <c r="B160" s="6"/>
+      <c r="C160" s="6">
+        <v>724070.2</v>
+      </c>
+      <c r="D160" s="6">
+        <v>1071.3905500000001</v>
+      </c>
+      <c r="E160" s="6">
+        <v>373.53028</v>
+      </c>
+      <c r="F160" s="6">
+        <v>291.05918000000003</v>
+      </c>
+      <c r="G160" s="6">
+        <v>5814857.9000000004</v>
+      </c>
+      <c r="H160" s="6">
+        <v>1420067.7</v>
+      </c>
+      <c r="I160" s="6">
+        <v>82.912450000000007</v>
+      </c>
+      <c r="J160" s="6">
+        <v>107.7423</v>
+      </c>
+      <c r="K160" s="6">
+        <v>617.24729000000002</v>
+      </c>
+      <c r="L160" s="6">
+        <v>128.28581</v>
+      </c>
+      <c r="M160" s="6">
+        <v>303.83555999999999</v>
+      </c>
+      <c r="N160" s="6">
+        <v>321.65514000000002</v>
+      </c>
+      <c r="O160" s="6">
+        <v>179.63083</v>
+      </c>
+      <c r="P160" s="6">
+        <v>5467657.7000000002</v>
+      </c>
+      <c r="Q160" s="6">
+        <v>1727220.2</v>
+      </c>
+      <c r="R160" s="6">
+        <v>2971647.4</v>
+      </c>
+      <c r="S160" s="6">
+        <v>180.61359999999999</v>
+      </c>
+      <c r="T160" s="6">
+        <v>3085166.8</v>
+      </c>
+      <c r="U160" s="6">
+        <v>1973047.2</v>
+      </c>
+      <c r="V160" s="6"/>
+      <c r="W160" s="6">
+        <v>63.012099999999997</v>
+      </c>
+      <c r="X160" s="6">
+        <v>201.40159</v>
+      </c>
+      <c r="Y160" s="6">
+        <v>46.192920000000001</v>
+      </c>
+      <c r="Z160" s="6">
+        <v>192.61138</v>
+      </c>
+      <c r="AA160" s="6"/>
+      <c r="AB160" s="6">
+        <v>823776</v>
+      </c>
+      <c r="AC160" s="6">
+        <v>75.956280000000007</v>
+      </c>
+      <c r="AD160" s="6">
+        <v>8.9572000000000003</v>
+      </c>
+      <c r="AE160" s="6">
+        <v>39.425409999999999</v>
+      </c>
+      <c r="AF160" s="6">
+        <v>58.172179999999997</v>
+      </c>
+      <c r="AG160" s="6"/>
+      <c r="AH160" s="6">
+        <v>1644.48407</v>
+      </c>
+      <c r="AI160" s="6">
+        <v>21050.62904</v>
+      </c>
+      <c r="AJ160" s="6">
+        <v>6292.0235400000001</v>
+      </c>
+      <c r="AK160" s="6">
+        <v>3266.9320699999998</v>
+      </c>
+      <c r="AL160" s="6">
+        <v>7344.0865000000003</v>
+      </c>
+      <c r="AM160" s="6">
+        <v>1452.49981</v>
+      </c>
+      <c r="AN160" s="6">
+        <v>956.35359000000005</v>
+      </c>
+      <c r="AO160" s="6">
+        <v>15733288</v>
+      </c>
+      <c r="AP160" s="6">
+        <v>11859.15243</v>
+      </c>
+      <c r="AQ160" s="6">
+        <v>1445.7484899999999</v>
+      </c>
+      <c r="AR160" s="6">
+        <v>3891.4637400000001</v>
+      </c>
+      <c r="AS160" s="6">
+        <v>34055444</v>
+      </c>
+      <c r="AT160" s="6">
+        <v>2658.5005900000001</v>
+      </c>
+      <c r="AU160" s="6">
+        <v>74559000.400000006</v>
+      </c>
+      <c r="AV160" s="6">
+        <v>3262.35772</v>
+      </c>
+      <c r="AW160" s="6">
+        <v>3640.90616</v>
+      </c>
+      <c r="AX160" s="6">
+        <v>24155534</v>
+      </c>
+      <c r="AY160" s="6">
+        <v>3692.1385399999999</v>
+      </c>
+      <c r="AZ160" s="6">
+        <v>3816.56547</v>
+      </c>
+      <c r="BA160" s="6"/>
+      <c r="BB160" s="6">
+        <v>889.67679999999996</v>
+      </c>
+      <c r="BC160" s="6">
+        <v>2688.7942800000001</v>
+      </c>
+      <c r="BD160" s="6">
+        <v>443.55374</v>
+      </c>
+      <c r="BE160" s="6">
+        <v>23096142.800000001</v>
+      </c>
+      <c r="BF160" s="6"/>
+      <c r="BG160" s="6">
+        <v>1426.55195</v>
+      </c>
+      <c r="BH160" s="6">
+        <v>1108.85571</v>
+      </c>
+      <c r="BI160" s="6">
+        <v>738404</v>
+      </c>
+      <c r="BJ160" s="6">
+        <v>5962209.5</v>
+      </c>
+      <c r="BK160" s="6">
+        <v>12468507.199999999</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A162" s="2" t="s">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" s="2" t="s">
         <v>70</v>
       </c>
     </row>
